--- a/biology/Médecine/1738_en_santé_et_médecine/1738_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1738_en_santé_et_médecine/1738_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1738_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1738_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1738 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1738_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1738_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En juin, l'hospice général de Lille est fondé à Lille sur autorisation de Louis XV[1].
-La Peyronie guérit le dauphin Louis de France d’un « dépôt considérable à la mâchoire inférieure » (abcès)[2].
-Fondation de la pharmacie Jacques de Besançon par l’apothicaire Joseph Baratte[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En juin, l'hospice général de Lille est fondé à Lille sur autorisation de Louis XV.
+La Peyronie guérit le dauphin Louis de France d’un « dépôt considérable à la mâchoire inférieure » (abcès).
+Fondation de la pharmacie Jacques de Besançon par l’apothicaire Joseph Baratte.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1738_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1738_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6 février : Pierre Joseph Desault (mort en 1795), chirurgien et anatomiste français[4].
-28 mai : Joseph Ignace Guillotin (mort en 1814), médecin et homme politique français. Il est connu pour avoir fait adopter, sous la Révolution française, la guillotine comme mode unique d’exécution capitale[5].
-20 septembre : Amy Félix Bridault (mort en 1807), médecin français, premier étudiant en médecine français à présenter une thèse sur l'ensemble de la médecine chinoise (1759)[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 février : Pierre Joseph Desault (mort en 1795), chirurgien et anatomiste français.
+28 mai : Joseph Ignace Guillotin (mort en 1814), médecin et homme politique français. Il est connu pour avoir fait adopter, sous la Révolution française, la guillotine comme mode unique d’exécution capitale.
+20 septembre : Amy Félix Bridault (mort en 1807), médecin français, premier étudiant en médecine français à présenter une thèse sur l'ensemble de la médecine chinoise (1759),.
 26 novembre : Jean-Pierre René Chéradame (mort en 1824), pharmacien français, professeur de chimie à l'École gratuite de pharmacie, membre honoraire de la section de pharmacie de l'Académie de médecine.
 23 octobre : Joseph Jacob von Plenck (mort en 1807), médecin et botaniste autrichien.
 31 décembre : Jean Hermann (mort en 1800), médecin et naturaliste français.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1738_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1738_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>12 février : James Sherard (né en 1666), médecin et botaniste britannique.
 8 mars : Johannes Gaspar Scheuchzer (né en 1684), médecin et botaniste suisse.
-11 juin : Caspar Bartholin le Jeune (né en 1655), anatomiste danois[8].
+11 juin : Caspar Bartholin le Jeune (né en 1655), anatomiste danois.
 23 septembre : Herman Boerhaave (né en 1668), botaniste, médecin et chimiste néerlandais.</t>
         </is>
       </c>
